--- a/DMSNewVSale_2025-11-23_12-58.xlsx
+++ b/DMSNewVSale_2025-11-23_12-58.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
   </si>
   <si>
     <t>6:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>19.9200</t>
@@ -944,7 +953,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -954,11 +963,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>15</v>
@@ -970,14 +979,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -987,11 +996,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>15</v>
@@ -1003,7 +1012,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1020,11 +1029,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>15</v>
@@ -1036,14 +1045,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1053,11 +1062,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>15</v>
@@ -1069,14 +1078,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1086,14 +1095,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1109,7 +1118,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1119,14 +1128,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1135,14 +1144,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1152,14 +1161,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1168,14 +1177,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1185,14 +1194,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1208,7 +1217,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1225,7 +1234,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1241,7 +1250,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1251,14 +1260,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1267,14 +1276,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1284,11 +1293,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1300,14 +1309,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1317,11 +1326,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -1333,14 +1342,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1350,14 +1359,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1366,31 +1375,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1399,20 +1408,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1423,7 +1432,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1445,7 +1454,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1456,44 +1465,77 @@
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="N25" s="13">
-        <v>1526.03</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>72</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>66</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>73</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="26.25" customHeight="1">
+      <c r="N26" s="13">
+        <v>1550.03</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>75</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>76</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>77</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1634,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
